--- a/Hydrology Packet/AssortedElevationNotes.xlsx
+++ b/Hydrology Packet/AssortedElevationNotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria Starnes\Documents\MSU\Hydrology Packet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria Starnes\Documents\GitHub\Bluff-Lake-Project\Hydrology Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55334C52-01E6-448D-A313-A2F9ED51F716}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A79FD-77E3-4329-A2A3-9E6EDA4A4144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{B68D1944-6400-4269-9E0F-895BD774C2C5}"/>
+    <workbookView xWindow="-1440" yWindow="3090" windowWidth="15375" windowHeight="7875" xr2:uid="{B68D1944-6400-4269-9E0F-895BD774C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -586,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53EEEA9-C7F0-41E0-9EF1-1CF521184EC7}">
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="21">
-        <v>66.701120000000003</v>
+        <v>66.901120000000006</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
@@ -831,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="21">
-        <v>67.770880416666699</v>
+        <v>68.384720999999999</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="2"/>

--- a/Hydrology Packet/AssortedElevationNotes.xlsx
+++ b/Hydrology Packet/AssortedElevationNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria Starnes\Documents\GitHub\Bluff-Lake-Project\Hydrology Packet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A79FD-77E3-4329-A2A3-9E6EDA4A4144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F66EB5A-908D-4933-8ADC-831B321BB6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="3090" windowWidth="15375" windowHeight="7875" xr2:uid="{B68D1944-6400-4269-9E0F-895BD774C2C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B68D1944-6400-4269-9E0F-895BD774C2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="24">
-        <v>66.840879999999999</v>
+        <v>67.810880420000004</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
